--- a/outfit20data.xlsx
+++ b/outfit20data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A22308\Desktop\data science\dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B39B263A-719E-4B10-A1F6-9E3D88D41602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7973720-4A80-4D94-920A-8AE23677FB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F5699676-C8FD-4963-A6D4-E9F2229BDBE6}"/>
+    <workbookView xWindow="3825" yWindow="4845" windowWidth="15375" windowHeight="7875" xr2:uid="{F5699676-C8FD-4963-A6D4-E9F2229BDBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,33 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
   <si>
-    <t>brand_name</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>product_image</t>
-  </si>
-  <si>
-    <t>offer_price</t>
-  </si>
-  <si>
-    <t>original_price</t>
-  </si>
-  <si>
-    <t>deal_percentage</t>
-  </si>
-  <si>
-    <t>sizes</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
     <t>Trivety </t>
   </si>
   <si>
@@ -366,6 +339,33 @@
   </si>
   <si>
     <t>₹669</t>
+  </si>
+  <si>
+    <t>Brand Name</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Product Image</t>
+  </si>
+  <si>
+    <t>Offer Price</t>
+  </si>
+  <si>
+    <t>Original Price</t>
+  </si>
+  <si>
+    <t>Deal Percentage</t>
+  </si>
+  <si>
+    <t>Sizes</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -777,590 +777,601 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7208EC2-01B7-4288-B355-DE09B419CAE5}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="169.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
         <v>22</v>
       </c>
-      <c r="F18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" t="s">
-        <v>31</v>
-      </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
